--- a/res4.xlsx
+++ b/res4.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1180333</t>
+          <t>1160533</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -529,7 +529,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1180056</t>
+          <t>180056</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -582,7 +582,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1180456</t>
+          <t>1280456</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -651,7 +651,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1180045</t>
+          <t>1180085</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1180212</t>
+          <t>1180232</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -709,7 +709,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1170343</t>
+          <t>1370343</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
